--- a/备忘录.xlsx
+++ b/备忘录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27540" windowHeight="14415"/>
+    <workbookView windowWidth="27540" windowHeight="14415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>技术</t>
-  </si>
-  <si>
-    <t>文章</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>链接</t>
   </si>
   <si>
     <t>metahuman</t>
+  </si>
+  <si>
+    <t>插件</t>
+  </si>
+  <si>
+    <t>虚幻引擎人物模型制作插件</t>
+  </si>
+  <si>
+    <t>puerts</t>
+  </si>
+  <si>
+    <t>JS编程用于游戏引擎的解决方案插件</t>
+  </si>
+  <si>
+    <t>https://github.com/Tencent/puerts</t>
+  </si>
+  <si>
+    <t>articy：draft</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>用于文案编剧的文本管理和流程规划软件</t>
+  </si>
+  <si>
+    <t>开放世界设计研究所系列文档</t>
+  </si>
+  <si>
+    <t>游戏设计文章</t>
+  </si>
+  <si>
+    <t>如题</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI4NTY3MDU3MA==&amp;mid=2247483986&amp;idx=1&amp;sn=62f705af4cba496b450e77c41d0bbccb&amp;chksm=ebe9ef97dc9e668123a1b61feb1c0763c7f9a3e23155d84b8e991b3df614870cb24d514fd272&amp;mpshare=1&amp;scene=23&amp;srcid=0622kNwMyLO92T8SehPQ19Iy&amp;sharer_sharetime=1655896563052&amp;sharer_shareid=7d8e0d294fd006e010d66f69522932c9#rd</t>
   </si>
 </sst>
 </file>
@@ -37,13 +79,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -52,58 +100,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,48 +564,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,111 +618,117 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,31 +1081,51 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="53.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:4">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:4">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,14 +1137,91 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://github.com/Tencent/puerts"/>
+    <hyperlink ref="D5" r:id="rId2" display="http://mp.weixin.qq.com/s?__biz=MzI4NTY3MDU3MA==&amp;mid=2247483986&amp;idx=1&amp;sn=62f705af4cba496b450e77c41d0bbccb&amp;chksm=ebe9ef97dc9e668123a1b61feb1c0763c7f9a3e23155d84b8e991b3df614870cb24d514fd272&amp;mpshare=1&amp;scene=23&amp;srcid=0622kNwMyLO92T8SehPQ19Iy&amp;sharer_sharetime=1655896563052&amp;sharer_shareid=7d8e0d294fd006e010d66f69522932c9#rd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/备忘录.xlsx
+++ b/备忘录.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="27540" windowHeight="14415" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="说明" sheetId="1" r:id="rId1"/>
+    <sheet name="备忘录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>名称</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzI4NTY3MDU3MA==&amp;mid=2247483986&amp;idx=1&amp;sn=62f705af4cba496b450e77c41d0bbccb&amp;chksm=ebe9ef97dc9e668123a1b61feb1c0763c7f9a3e23155d84b8e991b3df614870cb24d514fd272&amp;mpshare=1&amp;scene=23&amp;srcid=0622kNwMyLO92T8SehPQ19Iy&amp;sharer_sharetime=1655896563052&amp;sharer_shareid=7d8e0d294fd006e010d66f69522932c9#rd</t>
+  </si>
+  <si>
+    <t>dungeonscrawl</t>
+  </si>
+  <si>
+    <t>关卡生成工具</t>
+  </si>
+  <si>
+    <t>https://dungeonscrawl.com/</t>
+  </si>
+  <si>
+    <t>PixelBasher</t>
+  </si>
+  <si>
+    <t>像素编辑工具</t>
+  </si>
+  <si>
+    <t>https://twitter.com/rilemtwit</t>
   </si>
 </sst>
 </file>
@@ -79,13 +97,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -94,10 +118,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -111,34 +171,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,13 +623,13 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -606,40 +638,40 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +680,16 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,26 +741,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,50 +1111,50 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="53.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="13.5" spans="1:4">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,25 +1166,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1165,62 +1195,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/Tencent/puerts"/>
     <hyperlink ref="D5" r:id="rId2" display="http://mp.weixin.qq.com/s?__biz=MzI4NTY3MDU3MA==&amp;mid=2247483986&amp;idx=1&amp;sn=62f705af4cba496b450e77c41d0bbccb&amp;chksm=ebe9ef97dc9e668123a1b61feb1c0763c7f9a3e23155d84b8e991b3df614870cb24d514fd272&amp;mpshare=1&amp;scene=23&amp;srcid=0622kNwMyLO92T8SehPQ19Iy&amp;sharer_sharetime=1655896563052&amp;sharer_shareid=7d8e0d294fd006e010d66f69522932c9#rd"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://dungeonscrawl.com/"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://twitter.com/rilemtwit" tooltip="https://twitter.com/rilemtwit"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
